--- a/static/fields/deviceclearance_reference.xlsx
+++ b/static/fields/deviceclearance_reference.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack.finch/WebstormProjects/open.fda.gov/static/fields/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE240A-7F52-3644-A5FE-36965E1BB072}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13540" yWindow="760" windowWidth="21880" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="6920" yWindow="760" windowWidth="21880" windowHeight="15820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="device_501k_fields" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -227,6 +233,25 @@
   </si>
   <si>
     <t>Known as the “510(k) Review Panel” since 2014, this helps define the review division within CDRH in which the 510(k) would be reviewed, if it were reviewed today; this is derived from the procode and is always the same as the “Review Panel” field in the Device Classification database.</t>
+  </si>
+  <si>
+    <t>Full spelling of the Advisory Committee abbreviation (e.g. Gastroenterology and Urology Devices Panel of the Medical Devices Advisory Committee). (note that &amp; and and have been removed from the descriptions as they conflicted with the API syntax)
+This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
+  </si>
+  <si>
+    <t>This is the proprietary name of the cleared device (trade name).
+This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
+  </si>
+  <si>
+    <t>A series of letters and/or digits, sometimes including spaces or punctuation, included in a postal address for the purpose of sorting mail. In the United States, this is a Zip code (below).
+This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
+  </si>
+  <si>
+    <t>The manufacturer of record or third party who submits a 510(k) submission. Also known as sponsor. Please note, before Aug 14, 2014, this could be either the manufacturer who submitted the 510k, the third party OR the consultant; after Aug 14, 2014, it is always the manufacturer.
+This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
+  </si>
+  <si>
+    <t>This is the date on which FDA rendered a final decision on a 510(k) submission.</t>
   </si>
   <si>
     <t>Code under which the product was originally classified, based on the product code. This is a historical designation for the group that initially placed a device into Class I, Class II, or Class III following the medical device amendments of May 28, 1976. Two letters indicate the medical specialty panel that was responsible for classifying the product (e.g. GU).
@@ -241,6 +266,7 @@
 HO = General Hospital
 HE = Hematology
 IM = Immunology
+MG = Medical Genetics
 MI = Microbiology
 NE = Neurology
 OB = Obstetrics/Gynecology
@@ -252,30 +278,11 @@
 SU = General, Plastic Surgery
 TX = Clinical Toxicology</t>
   </si>
-  <si>
-    <t>Full spelling of the Advisory Committee abbreviation (e.g. Gastroenterology and Urology Devices Panel of the Medical Devices Advisory Committee). (note that &amp; and and have been removed from the descriptions as they conflicted with the API syntax)
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
-  </si>
-  <si>
-    <t>This is the proprietary name of the cleared device (trade name).
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
-  </si>
-  <si>
-    <t>A series of letters and/or digits, sometimes including spaces or punctuation, included in a postal address for the purpose of sorting mail. In the United States, this is a Zip code (below).
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
-  </si>
-  <si>
-    <t>The manufacturer of record or third party who submits a 510(k) submission. Also known as sponsor. Please note, before Aug 14, 2014, this could be either the manufacturer who submitted the 510k, the third party OR the consultant; after Aug 14, 2014, it is always the manufacturer.
-This is an .exact field. It has been indexed both as its exact string content, and also tokenized.</t>
-  </si>
-  <si>
-    <t>This is the date on which FDA rendered a final decision on a 510(k) submission.</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -801,6 +808,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1125,26 +1140,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="118.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116" style="5" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="75">
+    <row r="2" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1184,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="180">
+    <row r="3" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1195,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>26</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="180">
+    <row r="5" spans="1:4" ht="204" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
         <v>27</v>
       </c>
@@ -1202,7 +1217,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
@@ -1213,7 +1228,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="150">
+    <row r="7" spans="1:4" ht="187" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
@@ -1224,7 +1239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90">
+    <row r="9" spans="1:4" ht="102" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1261,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1257,7 +1272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>31</v>
       </c>
@@ -1268,7 +1283,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
@@ -1279,7 +1294,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="150">
+    <row r="13" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>33</v>
       </c>
@@ -1290,7 +1305,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="45">
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1301,7 +1316,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="150">
+    <row r="15" spans="1:4" ht="170" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>35</v>
       </c>
@@ -1312,7 +1327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1338,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="390">
+    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>37</v>
       </c>
@@ -1331,10 +1346,10 @@
         <v>3</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>38</v>
       </c>
@@ -1342,10 +1357,10 @@
         <v>3</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1353,10 +1368,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
@@ -1367,7 +1382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="60">
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>39</v>
       </c>
@@ -1375,10 +1390,10 @@
         <v>3</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>40</v>
       </c>
@@ -1386,10 +1401,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>41</v>
       </c>
@@ -1397,10 +1412,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="135">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="153" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>5</v>
       </c>
@@ -1414,7 +1429,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45">
+    <row r="25" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>5</v>
       </c>
@@ -1428,7 +1443,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1442,7 +1457,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="60">
+    <row r="27" spans="1:4" ht="68" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>5</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45">
+    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>5</v>
       </c>
@@ -1483,8 +1498,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="21" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup scale="28" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="100"/>
